--- a/name.xlsx
+++ b/name.xlsx
@@ -3,10 +3,11 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3090" yWindow="510" windowWidth="15375" windowHeight="9825" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="09thAug, 2021" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -17,7 +18,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy\ mmm\ dd"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -395,15 +396,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:C4"/>
+  <dimension ref="A2:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>BARKAT</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>44411.92357494213</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>44411.92362424768</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>44411.92367181713</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>44415.85362371528</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>44415.8536778125</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>44415.85373260417</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>44415.85535320602</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>44415.85540259259</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>44415.85607518518</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="n">
+        <v>58.33856803844867</v>
+      </c>
+      <c r="C3" t="n">
+        <v>57.62532045244792</v>
+      </c>
+      <c r="D3" t="n">
+        <v>52.69172523621466</v>
+      </c>
+      <c r="E3" t="n">
+        <v>65.61309250155279</v>
+      </c>
+      <c r="F3" t="n">
+        <v>59.45638265356536</v>
+      </c>
+      <c r="G3" t="n">
+        <v>59.64865442257383</v>
+      </c>
+      <c r="H3" t="n">
+        <v>61.89463967501755</v>
+      </c>
+      <c r="I3" t="n">
+        <v>66.89636435307966</v>
+      </c>
+      <c r="J3" t="n">
+        <v>55.75754485861658</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A2:AF7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AC12" sqref="AC12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="18.28515625" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="18.28515625" bestFit="1" customWidth="1" min="32" max="32"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -412,24 +495,193 @@
           <t>BARKAT</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>56.54406461793793</v>
+      <c r="B2" s="1" t="n">
+        <v>44417.82224016204</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>44408.98564814815</v>
+        <v>44417.82229238426</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>44417.82234395833</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>44417.82239103009</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>44417.82244174769</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>44417.82248809028</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>44417.82254042824</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>44417.82258753472</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>44417.82263921297</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>44417.82268840278</v>
+      </c>
+      <c r="L2" s="1" t="n">
+        <v>44417.82273489583</v>
+      </c>
+      <c r="M2" s="1" t="n">
+        <v>44417.82280960648</v>
+      </c>
+      <c r="N2" s="1" t="n">
+        <v>44417.82288429398</v>
+      </c>
+      <c r="O2" s="1" t="n">
+        <v>44417.82293166667</v>
+      </c>
+      <c r="P2" s="1" t="n">
+        <v>44417.82298355324</v>
+      </c>
+      <c r="Q2" s="1" t="n">
+        <v>44417.8230332176</v>
+      </c>
+      <c r="R2" s="1" t="n">
+        <v>44417.82308399305</v>
+      </c>
+      <c r="S2" s="1" t="n">
+        <v>44417.82313601852</v>
+      </c>
+      <c r="T2" s="1" t="n">
+        <v>44417.82358487268</v>
+      </c>
+      <c r="U2" s="1" t="n">
+        <v>44417.8236327199</v>
+      </c>
+      <c r="V2" s="1" t="n">
+        <v>44417.82368076389</v>
+      </c>
+      <c r="W2" s="1" t="n">
+        <v>44417.82373652777</v>
+      </c>
+      <c r="X2" s="1" t="n">
+        <v>44417.82395400463</v>
+      </c>
+      <c r="Y2" s="1" t="n">
+        <v>44417.82400850694</v>
+      </c>
+      <c r="Z2" s="1" t="n">
+        <v>44417.82405871528</v>
+      </c>
+      <c r="AA2" s="1" t="n">
+        <v>44417.94652545139</v>
+      </c>
+      <c r="AB2" s="1" t="n">
+        <v>44417.94657619213</v>
+      </c>
+      <c r="AC2" s="1" t="n">
+        <v>44417.94662560185</v>
+      </c>
+      <c r="AD2" s="1" t="n">
+        <v>44417.94667478009</v>
+      </c>
+      <c r="AE2" s="1" t="n">
+        <v>44417.94672203704</v>
+      </c>
+      <c r="AF2" s="1" t="n">
+        <v>44417.94677083333</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>DIP</t>
-        </is>
-      </c>
       <c r="B3" t="n">
-        <v>74.27852406959478</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>44408.98594118056</v>
+        <v>53.542823658927</v>
+      </c>
+      <c r="C3" t="n">
+        <v>60.36523559205251</v>
+      </c>
+      <c r="D3" t="n">
+        <v>56.96394311889464</v>
+      </c>
+      <c r="E3" t="n">
+        <v>54.72813178449628</v>
+      </c>
+      <c r="F3" t="n">
+        <v>55.40253417910125</v>
+      </c>
+      <c r="G3" t="n">
+        <v>57.24940752368606</v>
+      </c>
+      <c r="H3" t="n">
+        <v>57.62825205617263</v>
+      </c>
+      <c r="I3" t="n">
+        <v>56.81970962492681</v>
+      </c>
+      <c r="J3" t="n">
+        <v>55.29277788015965</v>
+      </c>
+      <c r="K3" t="n">
+        <v>54.14678840136179</v>
+      </c>
+      <c r="L3" t="n">
+        <v>54.85523509095866</v>
+      </c>
+      <c r="M3" t="n">
+        <v>59.85810148883542</v>
+      </c>
+      <c r="N3" t="n">
+        <v>61.86370041331051</v>
+      </c>
+      <c r="O3" t="n">
+        <v>54.51973910703432</v>
+      </c>
+      <c r="P3" t="n">
+        <v>53.72616683470605</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>53.31724502116864</v>
+      </c>
+      <c r="R3" t="n">
+        <v>50.85847973388519</v>
+      </c>
+      <c r="S3" t="n">
+        <v>57.8340071878003</v>
+      </c>
+      <c r="T3" t="n">
+        <v>53.05560272653313</v>
+      </c>
+      <c r="U3" t="n">
+        <v>57.62913473415546</v>
+      </c>
+      <c r="V3" t="n">
+        <v>52.92641729173631</v>
+      </c>
+      <c r="W3" t="n">
+        <v>56.08790410098113</v>
+      </c>
+      <c r="X3" t="n">
+        <v>55.48319966925911</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>52.50968075018424</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>60.34213673823531</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>54.56749361951794</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>50.13678485008185</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>51.97028951994359</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>50.58696131401567</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>53.84506514160032</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>57.89640483625501</v>
       </c>
     </row>
     <row r="4">
@@ -438,14 +690,73 @@
           <t>PARTHO</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>52.57315758720868</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>44408.98693019676</v>
+      <c r="B4" s="1" t="n">
+        <v>44417.82328145833</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>44417.82334966435</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>44417.82340376158</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>44417.82345313657</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>44417.82350561343</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>44417.82355653936</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="n">
+        <v>67.55517600591367</v>
+      </c>
+      <c r="C5" t="n">
+        <v>63.4348087892302</v>
+      </c>
+      <c r="D5" t="n">
+        <v>72.91781515037208</v>
+      </c>
+      <c r="E5" t="n">
+        <v>69.04050218910706</v>
+      </c>
+      <c r="F5" t="n">
+        <v>67.51575826061158</v>
+      </c>
+      <c r="G5" t="n">
+        <v>67.60920205228281</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>DIP</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>44417.82379689815</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>44417.82385122685</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>44417.82390922453</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="n">
+        <v>74.92791161028117</v>
+      </c>
+      <c r="C7" t="n">
+        <v>75.14010206192152</v>
+      </c>
+      <c r="D7" t="n">
+        <v>70.049043613039</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/name.xlsx
+++ b/name.xlsx
@@ -1,70 +1,69 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Senior project\attendence-main\face_detection\project\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FFB931A-B108-47FC-8672-863709B18362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="12thAug, 2021" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="12thAug, 2021" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="13thAug, 2021" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="15thAug, 2021" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="19thAug, 2021" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="20thAug, 2021" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="6">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>BARKAT</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>Matching(%)</t>
-  </si>
-  <si>
-    <t>PARTHO</t>
-  </si>
-  <si>
-    <t>DIP</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <b val="1"/>
       <sz val="11"/>
+    </font>
+    <font>
       <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -82,24 +81,91 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -365,200 +431,1005 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2">
-        <v>44420.538253587962</v>
-      </c>
-      <c r="D2" s="2">
-        <v>44420.538303009256</v>
-      </c>
-      <c r="E2" s="2">
-        <v>44420.538350925926</v>
-      </c>
-      <c r="F2" s="2">
-        <v>44420.540571747682</v>
-      </c>
-      <c r="G2" s="2">
-        <v>44420.541076863425</v>
-      </c>
-      <c r="H2" s="2">
-        <v>44420.541465254631</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>59.043842820225322</v>
-      </c>
-      <c r="D3">
-        <v>59.840908037961192</v>
-      </c>
-      <c r="E3">
-        <v>53.111455412456912</v>
-      </c>
-      <c r="F3">
-        <v>60.864307314115251</v>
-      </c>
-      <c r="G3">
-        <v>51.493923189935302</v>
-      </c>
-      <c r="H3">
-        <v>53.760520072400013</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2">
-        <v>44420.540646145833</v>
-      </c>
-      <c r="D4" s="2">
-        <v>44420.540695243057</v>
-      </c>
-      <c r="E4" s="2">
-        <v>44420.540744907405</v>
-      </c>
-      <c r="F4" s="2">
-        <v>44420.540792557869</v>
-      </c>
-      <c r="G4" s="2">
-        <v>44420.540840520836</v>
-      </c>
-      <c r="H4" s="2">
-        <v>44420.540887604169</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>68.841257197117528</v>
-      </c>
-      <c r="D5">
-        <v>72.586264346417948</v>
-      </c>
-      <c r="E5">
-        <v>74.639834895598028</v>
-      </c>
-      <c r="F5">
-        <v>72.738998166776724</v>
-      </c>
-      <c r="G5">
-        <v>74.163001547936446</v>
-      </c>
-      <c r="H5">
-        <v>71.852438054649667</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="2">
-        <v>44420.540990462963</v>
-      </c>
-      <c r="D6" s="2">
-        <v>44420.541192326389</v>
-      </c>
-      <c r="E6" s="2">
-        <v>44420.541249085647</v>
-      </c>
-      <c r="F6" s="2">
-        <v>44420.541306203704</v>
-      </c>
-      <c r="G6" s="2">
-        <v>44420.541363634256</v>
-      </c>
-      <c r="H6" s="2">
-        <v>44420.541420601854</v>
-      </c>
-      <c r="I6" s="2">
-        <v>44420.541497835649</v>
-      </c>
-      <c r="J6" s="2">
-        <v>44420.541552418981</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>BARKAT</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="C2" s="7" t="n">
+        <v>44420.53825358796</v>
+      </c>
+      <c r="D2" s="7" t="n">
+        <v>44420.53830300926</v>
+      </c>
+      <c r="E2" s="7" t="n">
+        <v>44420.53835092593</v>
+      </c>
+      <c r="F2" s="7" t="n">
+        <v>44420.54057174768</v>
+      </c>
+      <c r="G2" s="7" t="n">
+        <v>44420.54107686342</v>
+      </c>
+      <c r="H2" s="7" t="n">
+        <v>44420.54146525463</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>BARKAT</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>Matching(%)</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>59.04384282022532</v>
+      </c>
+      <c r="D3" t="n">
+        <v>59.84090803796119</v>
+      </c>
+      <c r="E3" t="n">
+        <v>53.11145541245691</v>
+      </c>
+      <c r="F3" t="n">
+        <v>60.86430731411525</v>
+      </c>
+      <c r="G3" t="n">
+        <v>51.4939231899353</v>
+      </c>
+      <c r="H3" t="n">
+        <v>53.76052007240001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>PARTHO</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="C4" s="7" t="n">
+        <v>44420.54064614583</v>
+      </c>
+      <c r="D4" s="7" t="n">
+        <v>44420.54069524306</v>
+      </c>
+      <c r="E4" s="7" t="n">
+        <v>44420.5407449074</v>
+      </c>
+      <c r="F4" s="7" t="n">
+        <v>44420.54079255787</v>
+      </c>
+      <c r="G4" s="7" t="n">
+        <v>44420.54084052084</v>
+      </c>
+      <c r="H4" s="7" t="n">
+        <v>44420.54088760417</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>PARTHO</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>Matching(%)</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>68.84125719711753</v>
+      </c>
+      <c r="D5" t="n">
+        <v>72.58626434641795</v>
+      </c>
+      <c r="E5" t="n">
+        <v>74.63983489559803</v>
+      </c>
+      <c r="F5" t="n">
+        <v>72.73899816677672</v>
+      </c>
+      <c r="G5" t="n">
+        <v>74.16300154793645</v>
+      </c>
+      <c r="H5" t="n">
+        <v>71.85243805464967</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>DIP</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="C6" s="7" t="n">
+        <v>44420.54099046296</v>
+      </c>
+      <c r="D6" s="7" t="n">
+        <v>44420.54119232639</v>
+      </c>
+      <c r="E6" s="7" t="n">
+        <v>44420.54124908565</v>
+      </c>
+      <c r="F6" s="7" t="n">
+        <v>44420.5413062037</v>
+      </c>
+      <c r="G6" s="7" t="n">
+        <v>44420.54136363426</v>
+      </c>
+      <c r="H6" s="7" t="n">
+        <v>44420.54142060185</v>
+      </c>
+      <c r="I6" s="7" t="n">
+        <v>44420.54149783565</v>
+      </c>
+      <c r="J6" s="7" t="n">
+        <v>44420.54155241898</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>DIP</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>Matching(%)</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>76.11558051418092</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>62.73286792007989</v>
       </c>
-      <c r="E7">
-        <v>77.819617180028445</v>
-      </c>
-      <c r="F7">
-        <v>77.273072979818096</v>
-      </c>
-      <c r="G7">
-        <v>77.606029166311259</v>
-      </c>
-      <c r="H7">
-        <v>76.513333630215669</v>
-      </c>
-      <c r="I7">
-        <v>53.930712117000581</v>
-      </c>
-      <c r="J7">
-        <v>77.653295538289953</v>
+      <c r="E7" t="n">
+        <v>77.81961718002844</v>
+      </c>
+      <c r="F7" t="n">
+        <v>77.2730729798181</v>
+      </c>
+      <c r="G7" t="n">
+        <v>77.60602916631126</v>
+      </c>
+      <c r="H7" t="n">
+        <v>76.51333363021567</v>
+      </c>
+      <c r="I7" t="n">
+        <v>53.93071211700058</v>
+      </c>
+      <c r="J7" t="n">
+        <v>77.65329553828995</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>BARKAT</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="C2" s="7" t="n">
+        <v>44421.74479163194</v>
+      </c>
+      <c r="D2" s="7" t="n">
+        <v>44421.74484447917</v>
+      </c>
+      <c r="E2" s="7" t="n">
+        <v>44421.74492427083</v>
+      </c>
+      <c r="F2" s="7" t="n">
+        <v>44421.74497637732</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>Matching(%)</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>57.25589502691123</v>
+      </c>
+      <c r="D3" t="n">
+        <v>58.13515751323214</v>
+      </c>
+      <c r="E3" t="n">
+        <v>59.47279771973154</v>
+      </c>
+      <c r="F3" t="n">
+        <v>54.36542863111376</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="11.140625" customWidth="1" min="11" max="11"/>
+    <col width="15.85546875" customWidth="1" min="13" max="13"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>BARKAT</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="C2" s="7" t="n">
+        <v>44423.49570543982</v>
+      </c>
+      <c r="D2" s="7" t="n">
+        <v>44423.49575504629</v>
+      </c>
+      <c r="E2" s="7" t="n">
+        <v>44423.49594998843</v>
+      </c>
+      <c r="F2" s="7" t="n">
+        <v>44423.4960687037</v>
+      </c>
+      <c r="G2" s="7" t="n">
+        <v>44423.4965706713</v>
+      </c>
+      <c r="H2" s="7" t="n">
+        <v>44423.49978362268</v>
+      </c>
+      <c r="I2" s="7" t="n">
+        <v>44423.49983290509</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>Matching(%)</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>54.90575848693158</v>
+      </c>
+      <c r="D3" t="n">
+        <v>61.34916755388414</v>
+      </c>
+      <c r="E3" t="n">
+        <v>51.88883316720092</v>
+      </c>
+      <c r="F3" t="n">
+        <v>57.64681288337692</v>
+      </c>
+      <c r="G3" t="n">
+        <v>55.31296628993243</v>
+      </c>
+      <c r="H3" t="n">
+        <v>56.50005858395708</v>
+      </c>
+      <c r="I3" t="n">
+        <v>53.26647405821905</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>PARTHO</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="C4" s="7" t="n">
+        <v>44423.49578920139</v>
+      </c>
+      <c r="D4" s="7" t="n">
+        <v>44423.49584179398</v>
+      </c>
+      <c r="E4" s="7" t="n">
+        <v>44423.49589047454</v>
+      </c>
+      <c r="F4" s="7" t="n">
+        <v>44423.49596009259</v>
+      </c>
+      <c r="G4" s="7" t="n">
+        <v>44423.49601298611</v>
+      </c>
+      <c r="H4" s="7" t="n">
+        <v>44423.49606184028</v>
+      </c>
+      <c r="I4" s="7" t="n">
+        <v>44423.54149957176</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Matching(%)</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>62.7934587196839</v>
+      </c>
+      <c r="D5" t="n">
+        <v>63.10556826004952</v>
+      </c>
+      <c r="E5" t="n">
+        <v>61.19686898573636</v>
+      </c>
+      <c r="F5" t="n">
+        <v>61.32898001971348</v>
+      </c>
+      <c r="G5" t="n">
+        <v>65.43803849979088</v>
+      </c>
+      <c r="H5" t="n">
+        <v>67.21221098356121</v>
+      </c>
+      <c r="I5" t="n">
+        <v>54.2664740582191</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>DIP</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="C6" s="7" t="n">
+        <v>44423.49627575232</v>
+      </c>
+      <c r="D6" s="7" t="n">
+        <v>44423.49632247685</v>
+      </c>
+      <c r="E6" s="7" t="n">
+        <v>44423.4963714699</v>
+      </c>
+      <c r="F6" s="7" t="n">
+        <v>44423.4964187037</v>
+      </c>
+      <c r="G6" s="7" t="n">
+        <v>44423.49646675926</v>
+      </c>
+      <c r="H6" s="7" t="n">
+        <v>44423.49651496528</v>
+      </c>
+      <c r="I6" s="7" t="n">
+        <v>44423.49656371528</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>Matching(%)</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>75.23052862459279</v>
+      </c>
+      <c r="D7" t="n">
+        <v>73.77304813765755</v>
+      </c>
+      <c r="E7" t="n">
+        <v>74.84954206506221</v>
+      </c>
+      <c r="F7" t="n">
+        <v>73.84500535456343</v>
+      </c>
+      <c r="G7" t="n">
+        <v>75.24691758355097</v>
+      </c>
+      <c r="H7" t="n">
+        <v>75.70746623850442</v>
+      </c>
+      <c r="I7" t="n">
+        <v>74.8365936869084</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="8" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>BARKAT</t>
+        </is>
+      </c>
+      <c r="B2" s="6" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="C2" s="7" t="n">
+        <v>44427.52789148148</v>
+      </c>
+      <c r="D2" s="7" t="n">
+        <v>44427.52794106481</v>
+      </c>
+      <c r="E2" s="7" t="n">
+        <v>44427.52798885417</v>
+      </c>
+      <c r="F2" s="7" t="n">
+        <v>44427.52803630787</v>
+      </c>
+      <c r="G2" s="7" t="n">
+        <v>44427.52808383102</v>
+      </c>
+      <c r="H2" s="7" t="n">
+        <v>44427.52813428241</v>
+      </c>
+      <c r="I2" s="7" t="n">
+        <v>44427.52818311343</v>
+      </c>
+      <c r="J2" s="7" t="n">
+        <v>44427.52823155092</v>
+      </c>
+      <c r="K2" s="7" t="n">
+        <v>44427.52909732639</v>
+      </c>
+      <c r="L2" s="7" t="n">
+        <v>44427.52945751158</v>
+      </c>
+      <c r="M2" s="7" t="n">
+        <v>44427.52950666667</v>
+      </c>
+      <c r="N2" s="10" t="n">
+        <v>44427.55319413194</v>
+      </c>
+      <c r="O2" s="10" t="n">
+        <v>44427.55412071759</v>
+      </c>
+      <c r="P2" s="10" t="n">
+        <v>44427.89401267361</v>
+      </c>
+      <c r="Q2" s="10" t="n">
+        <v>44427.89406443287</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="6" t="inlineStr">
+        <is>
+          <t>Matching(%)</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>51.48232180440797</v>
+      </c>
+      <c r="D3" t="n">
+        <v>53.50148404929975</v>
+      </c>
+      <c r="E3" t="n">
+        <v>59.38071109045335</v>
+      </c>
+      <c r="F3" t="n">
+        <v>53.94258269205367</v>
+      </c>
+      <c r="G3" t="n">
+        <v>54.16718976914817</v>
+      </c>
+      <c r="H3" t="n">
+        <v>55.65125291625863</v>
+      </c>
+      <c r="I3" t="n">
+        <v>52.13891864920728</v>
+      </c>
+      <c r="J3" t="n">
+        <v>50.758022401335</v>
+      </c>
+      <c r="K3" t="n">
+        <v>51.72982079084035</v>
+      </c>
+      <c r="L3" t="n">
+        <v>60.0589317816825</v>
+      </c>
+      <c r="M3" t="n">
+        <v>54.27525843782718</v>
+      </c>
+      <c r="N3" t="n">
+        <v>60.26092311797199</v>
+      </c>
+      <c r="O3" t="n">
+        <v>58.51131780204192</v>
+      </c>
+      <c r="P3" t="n">
+        <v>68.99451782015024</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>60.60569588447176</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>DIP</t>
+        </is>
+      </c>
+      <c r="B4" s="6" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="C4" s="7" t="n">
+        <v>44427.52850792824</v>
+      </c>
+      <c r="D4" s="7" t="n">
+        <v>44427.52855555555</v>
+      </c>
+      <c r="E4" s="7" t="n">
+        <v>44427.52860302083</v>
+      </c>
+      <c r="F4" s="7" t="n">
+        <v>44427.52865025463</v>
+      </c>
+      <c r="G4" s="7" t="n">
+        <v>44427.52869775463</v>
+      </c>
+      <c r="H4" s="7" t="n">
+        <v>44427.52874706018</v>
+      </c>
+      <c r="I4" s="7" t="n">
+        <v>44427.52879379629</v>
+      </c>
+      <c r="J4" s="7" t="n">
+        <v>44427.52884168982</v>
+      </c>
+      <c r="K4" s="7" t="n">
+        <v>44427.52909732639</v>
+      </c>
+      <c r="L4" s="7" t="n">
+        <v>44427.52945751158</v>
+      </c>
+      <c r="M4" s="7" t="n">
+        <v>44427.52950666667</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="6" t="inlineStr">
+        <is>
+          <t>Matching(%)</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>72.11628331740191</v>
+      </c>
+      <c r="D5" t="n">
+        <v>71.64172627170106</v>
+      </c>
+      <c r="E5" t="n">
+        <v>70.28246510713262</v>
+      </c>
+      <c r="F5" t="n">
+        <v>75.02559195531612</v>
+      </c>
+      <c r="G5" t="n">
+        <v>75.11190736727166</v>
+      </c>
+      <c r="H5" t="n">
+        <v>73.30728917999443</v>
+      </c>
+      <c r="I5" t="n">
+        <v>75.68961724921741</v>
+      </c>
+      <c r="J5" t="n">
+        <v>69.43143085148174</v>
+      </c>
+      <c r="K5" t="n">
+        <v>51.72982079084035</v>
+      </c>
+      <c r="L5" t="n">
+        <v>60.0589317816825</v>
+      </c>
+      <c r="M5" t="n">
+        <v>54.27525843782718</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>PARTHO</t>
+        </is>
+      </c>
+      <c r="B6" s="6" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="C6" s="7" t="n">
+        <v>44427.52913056713</v>
+      </c>
+      <c r="D6" s="7" t="n">
+        <v>44427.52917822917</v>
+      </c>
+      <c r="E6" s="7" t="n">
+        <v>44427.52922594907</v>
+      </c>
+      <c r="F6" s="7" t="n">
+        <v>44427.52927273148</v>
+      </c>
+      <c r="G6" s="7" t="n">
+        <v>44427.52932070602</v>
+      </c>
+      <c r="H6" s="7" t="n">
+        <v>44427.52936936342</v>
+      </c>
+      <c r="I6" s="7" t="n">
+        <v>44427.52941668982</v>
+      </c>
+      <c r="J6" s="7" t="n">
+        <v>44427.57050835648</v>
+      </c>
+      <c r="K6" s="7" t="n">
+        <v>44427.52909722222</v>
+      </c>
+      <c r="L6" s="7" t="n">
+        <v>44427.52945601852</v>
+      </c>
+      <c r="M6" s="7" t="n">
+        <v>44427.52950666667</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="6" t="inlineStr">
+        <is>
+          <t>Matching(%)</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>61.19078785625801</v>
+      </c>
+      <c r="D7" t="n">
+        <v>63.21921271818546</v>
+      </c>
+      <c r="E7" t="n">
+        <v>67.03647116207614</v>
+      </c>
+      <c r="F7" t="n">
+        <v>68.36859696062257</v>
+      </c>
+      <c r="G7" t="n">
+        <v>66.61534550980545</v>
+      </c>
+      <c r="H7" t="n">
+        <v>64.91418182325998</v>
+      </c>
+      <c r="I7" t="n">
+        <v>67.37832218105149</v>
+      </c>
+      <c r="J7" t="n">
+        <v>70.43143085148169</v>
+      </c>
+      <c r="K7" t="n">
+        <v>51.7298207908403</v>
+      </c>
+      <c r="L7" t="n">
+        <v>60.0589317816825</v>
+      </c>
+      <c r="M7" t="n">
+        <v>54.27525843782718</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="8" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>SHOBAI</t>
+        </is>
+      </c>
+      <c r="B2" s="8" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="C2" s="10" t="n">
+        <v>44428.72795630787</v>
+      </c>
+      <c r="D2" s="10" t="n">
+        <v>44428.72800788195</v>
+      </c>
+      <c r="E2" s="10" t="n">
+        <v>44428.72805600694</v>
+      </c>
+      <c r="F2" s="10" t="n">
+        <v>44428.72830737269</v>
+      </c>
+      <c r="G2" s="10" t="n">
+        <v>44428.72927998842</v>
+      </c>
+      <c r="H2" s="10" t="n">
+        <v>44428.72933215278</v>
+      </c>
+      <c r="I2" s="10" t="n">
+        <v>44428.72938332176</v>
+      </c>
+      <c r="J2" s="10" t="n">
+        <v>44428.73170290509</v>
+      </c>
+      <c r="K2" s="10" t="n">
+        <v>44428.73175243055</v>
+      </c>
+      <c r="L2" s="10" t="n">
+        <v>44428.73186702546</v>
+      </c>
+      <c r="M2" s="10" t="n">
+        <v>44428.73191539352</v>
+      </c>
+      <c r="N2" s="10" t="n">
+        <v>44428.73439893519</v>
+      </c>
+      <c r="O2" s="10" t="n">
+        <v>44428.73444703704</v>
+      </c>
+      <c r="P2" s="10" t="n">
+        <v>44428.7344952662</v>
+      </c>
+      <c r="Q2" s="10" t="n">
+        <v>44428.73454675926</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="8" t="inlineStr">
+        <is>
+          <t>Matching(%)</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>51.10205863012891</v>
+      </c>
+      <c r="D3" t="n">
+        <v>53.22571307824854</v>
+      </c>
+      <c r="E3" t="n">
+        <v>52.42662340824752</v>
+      </c>
+      <c r="F3" t="n">
+        <v>54.93761565990308</v>
+      </c>
+      <c r="G3" t="n">
+        <v>54.67596119353028</v>
+      </c>
+      <c r="H3" t="n">
+        <v>59.43751242884374</v>
+      </c>
+      <c r="I3" t="n">
+        <v>59.42367606542078</v>
+      </c>
+      <c r="J3" t="n">
+        <v>53.99401631133055</v>
+      </c>
+      <c r="K3" t="n">
+        <v>51.06313235404927</v>
+      </c>
+      <c r="L3" t="n">
+        <v>55.29025199385178</v>
+      </c>
+      <c r="M3" t="n">
+        <v>51.2451953637439</v>
+      </c>
+      <c r="N3" t="n">
+        <v>56.28597268407685</v>
+      </c>
+      <c r="O3" t="n">
+        <v>54.86388222398506</v>
+      </c>
+      <c r="P3" t="n">
+        <v>58.62666706607446</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>55.18367462427666</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>DIP</t>
+        </is>
+      </c>
+      <c r="B4" s="8" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="C4" s="10" t="n">
+        <v>44428.73373101852</v>
+      </c>
+      <c r="D4" s="10" t="n">
+        <v>44428.733780625</v>
+      </c>
+      <c r="E4" s="10" t="n">
+        <v>44428.73382890046</v>
+      </c>
+      <c r="F4" s="10" t="n">
+        <v>44428.7344269676</v>
+      </c>
+      <c r="G4" s="10" t="n">
+        <v>44428.73448818287</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="8" t="inlineStr">
+        <is>
+          <t>Matching(%)</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>56.70080848950014</v>
+      </c>
+      <c r="D5" t="n">
+        <v>74.9054485215207</v>
+      </c>
+      <c r="E5" t="n">
+        <v>71.63419163767749</v>
+      </c>
+      <c r="F5" t="n">
+        <v>57.71166018467626</v>
+      </c>
+      <c r="G5" t="n">
+        <v>57.72411455736362</v>
       </c>
     </row>
   </sheetData>
